--- a/manual/Backup_script.xlsx
+++ b/manual/Backup_script.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esl01298shr\Philippines Project\クロージング\技術移転資料一式\manual\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Google\webcoop_other\manual\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21E2DCB-8E06-4D95-930A-49B6F337C3DD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17850" windowHeight="7170"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="c.server configuration" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="74">
   <si>
     <t>/etc/exports</t>
     <phoneticPr fontId="3"/>
@@ -46,45 +47,6 @@
   </si>
   <si>
     <t>#min    hour    dom     moy     dow      command</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">0       13        *     *       1-7     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> /home/centos/backup/backup.py</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> &gt;&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/home/centos/backup.log</t>
-    </r>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>path : /home/centos/backup/backup.py</t>
@@ -259,7 +221,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -270,7 +232,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -282,7 +244,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -331,16 +293,60 @@
     <t>For restore , you can do restore per db, by odoo basic feature by using the backup stored file.</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0       13        *     *       1-7     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /home/centos/backup/backup.py</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &gt;&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/home/centos/backup.log</t>
+    </r>
+  </si>
+  <si>
+    <t>sudo nano /home/centos/backup/backup.py</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -348,7 +354,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -357,14 +363,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -372,7 +378,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -380,7 +386,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -392,7 +398,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -400,7 +406,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -448,8 +454,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -470,18 +476,24 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>67235</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>11205</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>291353</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>44823</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="テキスト ボックス 13"/>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -539,18 +551,24 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>134471</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>112058</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="直線矢印コネクタ 14"/>
+        <xdr:cNvPr id="15" name="直線矢印コネクタ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -847,65 +865,63 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G97"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
+    <row r="5" spans="1:3">
+      <c r="B5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
+    <row r="6" spans="1:3">
+      <c r="B6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B6" t="s">
+    <row r="7" spans="1:3">
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+    <row r="12" spans="1:3">
+      <c r="B12" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B12" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3">
       <c r="C14" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7">
       <c r="C17" s="1"/>
       <c r="D17" t="s">
         <v>0</v>
@@ -914,7 +930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:7" ht="15.75">
       <c r="D18" s="3" t="s">
         <v>2</v>
       </c>
@@ -922,319 +938,327 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:7">
       <c r="C21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7">
       <c r="D22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:7">
       <c r="D23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:7">
       <c r="D24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7">
+      <c r="C26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7">
+      <c r="C27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7">
+      <c r="D28" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C26" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="D27" t="s">
+    <row r="29" spans="3:7">
+      <c r="D29" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="D28" t="s">
+    <row r="30" spans="3:7">
+      <c r="D30" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="D29" t="s">
+    <row r="32" spans="3:7">
+      <c r="D32" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="D31" t="s">
+    <row r="33" spans="4:4">
+      <c r="D33" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="D32" t="s">
+    <row r="34" spans="4:4">
+      <c r="D34" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D33" t="s">
+    <row r="35" spans="4:4">
+      <c r="D35" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D34" t="s">
+    <row r="36" spans="4:4">
+      <c r="D36" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D35" t="s">
+    <row r="37" spans="4:4">
+      <c r="D37" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D36" t="s">
+    <row r="38" spans="4:4">
+      <c r="D38" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D37" t="s">
+    <row r="39" spans="4:4">
+      <c r="D39" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D38" t="s">
+    <row r="41" spans="4:4">
+      <c r="D41" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D40" t="s">
+    <row r="42" spans="4:4">
+      <c r="D42" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D41" t="s">
+    <row r="44" spans="4:4">
+      <c r="D44" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D43" t="s">
+    <row r="46" spans="4:4">
+      <c r="D46" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D45" t="s">
+    <row r="47" spans="4:4">
+      <c r="D47" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D46" t="s">
+    <row r="48" spans="4:4">
+      <c r="D48" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D47" t="s">
+    <row r="49" spans="4:4">
+      <c r="D49" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D48" t="s">
+    <row r="50" spans="4:4">
+      <c r="D50" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D49" t="s">
+    <row r="52" spans="4:4">
+      <c r="D52" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D51" t="s">
+    <row r="53" spans="4:4">
+      <c r="D53" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="4:4">
+      <c r="D55" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D52" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D54" t="s">
+    <row r="56" spans="4:4">
+      <c r="D56" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D55" t="s">
+    <row r="57" spans="4:4">
+      <c r="D57" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D56" t="s">
+    <row r="58" spans="4:4">
+      <c r="D58" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D57" t="s">
+    <row r="59" spans="4:4">
+      <c r="D59" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D58" t="s">
+    <row r="60" spans="4:4">
+      <c r="D60" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D59" t="s">
+    <row r="61" spans="4:4">
+      <c r="D61" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D60" t="s">
+    <row r="62" spans="4:4">
+      <c r="D62" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D61" t="s">
+    <row r="63" spans="4:4">
+      <c r="D63" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D62" t="s">
+    <row r="65" spans="4:4">
+      <c r="D65" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D64" t="s">
+    <row r="66" spans="4:4">
+      <c r="D66" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D65" t="s">
+    <row r="68" spans="4:4">
+      <c r="D68" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D67" t="s">
+    <row r="69" spans="4:4">
+      <c r="D69" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D68" t="s">
+    <row r="70" spans="4:4">
+      <c r="D70" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D69" t="s">
+    <row r="71" spans="4:4">
+      <c r="D71" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D70" t="s">
+    <row r="72" spans="4:4">
+      <c r="D72" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D71" t="s">
+    <row r="73" spans="4:4">
+      <c r="D73" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D72" t="s">
+    <row r="74" spans="4:4">
+      <c r="D74" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D73" t="s">
+    <row r="75" spans="4:4">
+      <c r="D75" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D74" t="s">
+    <row r="76" spans="4:4">
+      <c r="D76" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D75" t="s">
+    <row r="77" spans="4:4">
+      <c r="D77" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D76" t="s">
+    <row r="78" spans="4:4">
+      <c r="D78" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D77" t="s">
+    <row r="81" spans="4:4">
+      <c r="D81" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="4:4">
+      <c r="D83" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D80" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D82" t="s">
+    <row r="85" spans="4:4">
+      <c r="D85" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D84" t="s">
+    <row r="86" spans="4:4">
+      <c r="D86" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D85" t="s">
+    <row r="87" spans="4:4">
+      <c r="D87" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D86" s="4" t="s">
+    <row r="88" spans="4:4">
+      <c r="D88" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D87" s="5" t="s">
+    <row r="89" spans="4:4">
+      <c r="D89" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D88" s="5" t="s">
+    <row r="90" spans="4:4">
+      <c r="D90" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D89" t="s">
+    <row r="92" spans="4:4">
+      <c r="D92" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D91" t="s">
+    <row r="93" spans="4:4">
+      <c r="D93" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D92" t="s">
+    <row r="94" spans="4:4">
+      <c r="D94" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D93" t="s">
+    <row r="95" spans="4:4">
+      <c r="D95" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D94" t="s">
+    <row r="96" spans="4:4">
+      <c r="D96" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="97" spans="4:4">
+      <c r="D97" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D95" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D96" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D97" t="s">
-        <v>35</v>
+    <row r="98" spans="4:4">
+      <c r="D98" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
